--- a/report.xlsx
+++ b/report.xlsx
@@ -41,10 +41,10 @@
     <t>导购码接口测试</t>
   </si>
   <si>
-    <t>v2.0.8</t>
-  </si>
-  <si>
-    <t>python 3</t>
+    <t>v2.2</t>
+  </si>
+  <si>
+    <t>python3</t>
   </si>
   <si>
     <t>本地连接</t>
@@ -62,7 +62,7 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>1.29毫秒</t>
+    <t>0.13毫秒</t>
   </si>
   <si>
     <t>分数</t>
@@ -116,7 +116,7 @@
     <t>{"appStatus":{"errorCode":0,"message":"操作成功"},"content":[{"user_sex":0,"fk_user_city":440300,"user_id":30,"nickname":"18576759587","user_phone":"18576759587","head_picture":"http:\/\/dgm.boweixin.com\/","has_finance":1,"user_state":1}]}</t>
   </si>
   <si>
-    <t>{'appStatus': {'message': '用户名或者密码错误，请重新输入', 'errorCode': 255}, 'content': []}</t>
+    <t>{'content': [], 'appStatus': {'errorCode': 255, 'message': '用户名或者密码错误，请重新输入'}}</t>
   </si>
   <si>
     <t>Fail</t>
@@ -140,7 +140,7 @@
     <t>{"appStatus":{"errorCode":0,"message":"操作成功"},"content":[{"business_name":"坤达点子","notice_img":"\/product\/20160718184134_321.jpg","user_type":1,"user_id":2,"goods":[{"good_price":45211.0,"good_id":12,"good_name":"艾欧","banner_picture1":"\/product\/20160719165135_8977.png"},{"good_price":199.0,"good_id":14,"good_name":"麒麟瓜1","banner_picture1":"\/product\/20160720102028_5352.jpg"},{"good_price":452.0,"good_id":6,"good_name":"实力产品","banner_picture1":"\/product\/20160718165448_2602.png"},{"good_price":99898.0,"good_id":11,"good_name":"越南芒果","banner_picture1":"\/product\/20160720100057_5877.jpg"}],"shop_img":"\/product\/20160718120144_3196.jpg","head_picture":"http:\/\/dgm.boweixin.com\/\/product\/20160718134528_4744.jpg","notice_id":1}]}</t>
   </si>
   <si>
-    <t>{'appStatus': {'message': '操作成功', 'errorCode': 0}, 'content': [{'goods': [{'banner_picture1': '\\/product\\/20160719165135_8977.png', 'good_price': 45211.0, 'good_name': '艾欧', 'good_id': 12}, {'banner_picture1': '\\/product\\/20160720102028_5352.jpg', 'good_price': 199.0, 'good_name': '麒麟瓜1', 'good_id': 14}, {'banner_picture1': '\\/product\\/20160718165448_2602.png', 'good_price': 452.0, 'good_name': '实力产品', 'good_id': 6}, {'banner_picture1': '\\/product\\/20160720100057_3990.jpg', 'good_price': 99898.0, 'good_name': '越南芒果1', 'good_id': 11}], 'shop_img': '\\/product\\/20160718120144_3196.jpg', 'notice_id': 15300, 'user_id': 2, 'business_name': '坤达点子50', 'head_picture': 'http:\\/\\/dgm.boweixin.com\\/\\/product\\/20160718134528_4744.jpg', 'user_type': 1, 'notice_img': '\\/product\\/20160818184754_4484.png;\\/product\\/20160818184757_9910.png'}]}</t>
+    <t>{'content': [{'notice_id': 15300, 'user_id': 2, 'notice_img': '\\/product\\/20160818184754_4484.png;\\/product\\/20160818184757_9910.png', 'shop_img': '\\/product\\/shop\\/20160902182945_2493.png', 'goods': [{'good_id': 12, 'good_name': '艾欧', 'good_price': 45211.0, 'banner_picture1': '\\/product\\/20160719165135_8977.png'}, {'good_id': 14, 'good_name': '麒麟瓜1', 'good_price': 199.0, 'banner_picture1': '\\/product\\/20160720102028_5352.jpg'}, {'good_id': 6, 'good_name': '实力产品', 'good_price': 452.0, 'banner_picture1': '\\/product\\/20160718165448_2602.png'}, {'good_id': 11, 'good_name': '越南芒果1', 'good_price': 99898.0, 'banner_picture1': '\\/product\\/20160720100057_3990.jpg'}], 'head_picture': 'http:\\/\\/dgm.boweixin.com\\/\\/product\\/shop\\/20160830180116_3433.png', 'business_name': '坤达点子50', 'user_type': 1}], 'appStatus': {'errorCode': 0, 'message': '操作成功'}}</t>
   </si>
   <si>
     <t>Pass</t>

--- a/report.xlsx
+++ b/report.xlsx
@@ -62,7 +62,7 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>0.13毫秒</t>
+    <t>0.09毫秒</t>
   </si>
   <si>
     <t>分数</t>
@@ -110,40 +110,40 @@
     <t>dgm.boweixin.com/Login</t>
   </si>
   <si>
-    <t>{"account":"18576759587","password":"1112111","type":"0"}</t>
+    <t>{}</t>
   </si>
   <si>
     <t>{"appStatus":{"errorCode":0,"message":"操作成功"},"content":[{"user_sex":0,"fk_user_city":440300,"user_id":30,"nickname":"18576759587","user_phone":"18576759587","head_picture":"http:\/\/dgm.boweixin.com\/","has_finance":1,"user_state":1}]}</t>
   </si>
   <si>
-    <t>{'content': [], 'appStatus': {'errorCode': 255, 'message': '用户名或者密码错误，请重新输入'}}</t>
+    <t>{'content': [{'user_sex': 0, 'user_id': 30, 'nickname': '坤的', 'has_finance': 1, 'user_state': 1, 'fk_user_city': 440300, 'head_picture': 'http:\\/\\/dgm.boweixin.com\\/\\/user\\/301470715416.png', 'user_type': 0, 'user_phone': '18576759587', 'user_name': '诗昆'}], 'appStatus': {'message': '操作成功', 'errorCode': 0}}</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>个人主页</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>dgm.boweixin.com/GetPersonalHomePage</t>
+  </si>
+  <si>
+    <t>?lookerId=2&amp;user_id=30</t>
+  </si>
+  <si>
+    <t>{"appStatus":{"errorCode":0,"message":"操作成功"},"content":[{"business_name":"坤达点子","notice_img":"\/product\/20160718184134_321.jpg","user_type":1,"user_id":2,"goods":[{"good_price":45211.0,"good_id":12,"good_name":"艾欧","banner_picture1":"\/product\/20160719165135_8977.png"},{"good_price":199.0,"good_id":14,"good_name":"麒麟瓜1","banner_picture1":"\/product\/20160720102028_5352.jpg"},{"good_price":452.0,"good_id":6,"good_name":"实力产品","banner_picture1":"\/product\/20160718165448_2602.png"},{"good_price":99898.0,"good_id":11,"good_name":"越南芒果","banner_picture1":"\/product\/20160720100057_5877.jpg"}],"shop_img":"\/product\/20160718120144_3196.jpg","head_picture":"http:\/\/dgm.boweixin.com\/\/product\/20160718134528_4744.jpg","notice_id":1}]}</t>
+  </si>
+  <si>
+    <t>{'content': [], 'appStatus': {'message': 'Index: 0, Size: 0', 'errorCode': 1}}</t>
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>厂家主页</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>dgm.boweixin.com/GetFactoryHome?homeId=2</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>{"appStatus":{"errorCode":0,"message":"操作成功"},"content":[{"business_name":"坤达点子","notice_img":"\/product\/20160718184134_321.jpg","user_type":1,"user_id":2,"goods":[{"good_price":45211.0,"good_id":12,"good_name":"艾欧","banner_picture1":"\/product\/20160719165135_8977.png"},{"good_price":199.0,"good_id":14,"good_name":"麒麟瓜1","banner_picture1":"\/product\/20160720102028_5352.jpg"},{"good_price":452.0,"good_id":6,"good_name":"实力产品","banner_picture1":"\/product\/20160718165448_2602.png"},{"good_price":99898.0,"good_id":11,"good_name":"越南芒果","banner_picture1":"\/product\/20160720100057_5877.jpg"}],"shop_img":"\/product\/20160718120144_3196.jpg","head_picture":"http:\/\/dgm.boweixin.com\/\/product\/20160718134528_4744.jpg","notice_id":1}]}</t>
-  </si>
-  <si>
-    <t>{'content': [{'notice_id': 15300, 'user_id': 2, 'notice_img': '\\/product\\/20160818184754_4484.png;\\/product\\/20160818184757_9910.png', 'shop_img': '\\/product\\/shop\\/20160902182945_2493.png', 'goods': [{'good_id': 12, 'good_name': '艾欧', 'good_price': 45211.0, 'banner_picture1': '\\/product\\/20160719165135_8977.png'}, {'good_id': 14, 'good_name': '麒麟瓜1', 'good_price': 199.0, 'banner_picture1': '\\/product\\/20160720102028_5352.jpg'}, {'good_id': 6, 'good_name': '实力产品', 'good_price': 452.0, 'banner_picture1': '\\/product\\/20160718165448_2602.png'}, {'good_id': 11, 'good_name': '越南芒果1', 'good_price': 99898.0, 'banner_picture1': '\\/product\\/20160720100057_3990.jpg'}], 'head_picture': 'http:\\/\\/dgm.boweixin.com\\/\\/product\\/shop\\/20160830180116_3433.png', 'business_name': '坤达点子50', 'user_type': 1}], 'appStatus': {'errorCode': 0, 'message': '操作成功'}}</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>

--- a/report.xlsx
+++ b/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -62,7 +62,7 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>0.09毫秒</t>
+    <t>0.05毫秒</t>
   </si>
   <si>
     <t>分数</t>
@@ -116,34 +116,10 @@
     <t>{"appStatus":{"errorCode":0,"message":"操作成功"},"content":[{"user_sex":0,"fk_user_city":440300,"user_id":30,"nickname":"18576759587","user_phone":"18576759587","head_picture":"http:\/\/dgm.boweixin.com\/","has_finance":1,"user_state":1}]}</t>
   </si>
   <si>
-    <t>{'content': [{'user_sex': 0, 'user_id': 30, 'nickname': '坤的', 'has_finance': 1, 'user_state': 1, 'fk_user_city': 440300, 'head_picture': 'http:\\/\\/dgm.boweixin.com\\/\\/user\\/301470715416.png', 'user_type': 0, 'user_phone': '18576759587', 'user_name': '诗昆'}], 'appStatus': {'message': '操作成功', 'errorCode': 0}}</t>
+    <t>{'status_code': 200, 'content': [{'user_id': 30, 'fk_user_city': 440300, 'user_state': 1, 'user_name': '诗昆', 'nickname': '坤的', 'has_finance': 1, 'user_sex': 0, 'user_type': 0, 'head_picture': 'http://dgm.boweixin.com//user/301470715416.png', 'user_phone': '18576759587'}], 'appStatus': {'message': '操作成功', 'errorCode': 0}}</t>
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>个人主页</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>dgm.boweixin.com/GetPersonalHomePage</t>
-  </si>
-  <si>
-    <t>?lookerId=2&amp;user_id=30</t>
-  </si>
-  <si>
-    <t>{"appStatus":{"errorCode":0,"message":"操作成功"},"content":[{"business_name":"坤达点子","notice_img":"\/product\/20160718184134_321.jpg","user_type":1,"user_id":2,"goods":[{"good_price":45211.0,"good_id":12,"good_name":"艾欧","banner_picture1":"\/product\/20160719165135_8977.png"},{"good_price":199.0,"good_id":14,"good_name":"麒麟瓜1","banner_picture1":"\/product\/20160720102028_5352.jpg"},{"good_price":452.0,"good_id":6,"good_name":"实力产品","banner_picture1":"\/product\/20160718165448_2602.png"},{"good_price":99898.0,"good_id":11,"good_name":"越南芒果","banner_picture1":"\/product\/20160720100057_5877.jpg"}],"shop_img":"\/product\/20160718120144_3196.jpg","head_picture":"http:\/\/dgm.boweixin.com\/\/product\/20160718134528_4744.jpg","notice_id":1}]}</t>
-  </si>
-  <si>
-    <t>{'content': [], 'appStatus': {'message': 'Index: 0, Size: 0', 'errorCode': 1}}</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -304,7 +280,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>16</v>
@@ -741,7 +717,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -855,32 +831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1"/>
     <row r="5" spans="1:8" ht="30" customHeight="1"/>
     <row r="6" spans="1:8" ht="30" customHeight="1"/>
     <row r="7" spans="1:8" ht="30" customHeight="1"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -62,7 +62,7 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>0.05毫秒</t>
+    <t>0.12毫秒</t>
   </si>
   <si>
     <t>分数</t>
@@ -116,10 +116,34 @@
     <t>{"appStatus":{"errorCode":0,"message":"操作成功"},"content":[{"user_sex":0,"fk_user_city":440300,"user_id":30,"nickname":"18576759587","user_phone":"18576759587","head_picture":"http:\/\/dgm.boweixin.com\/","has_finance":1,"user_state":1}]}</t>
   </si>
   <si>
-    <t>{'status_code': 200, 'content': [{'user_id': 30, 'fk_user_city': 440300, 'user_state': 1, 'user_name': '诗昆', 'nickname': '坤的', 'has_finance': 1, 'user_sex': 0, 'user_type': 0, 'head_picture': 'http://dgm.boweixin.com//user/301470715416.png', 'user_phone': '18576759587'}], 'appStatus': {'message': '操作成功', 'errorCode': 0}}</t>
+    <t>{'content': [{'has_finance': 1, 'user_phone': '18576759587', 'user_id': 30, 'user_state': 1, 'nickname': '坤的', 'fk_user_city': 440300, 'user_type': 0, 'head_picture': 'http://dgm.boweixin.com//user/301470715416.png', 'user_name': '诗昆', 'user_sex': 0}], 'appStatus': {'message': '操作成功', 'errorCode': 0}, 'status_code': 200}</t>
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>个人主页</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>dgm.boweixin.com/GetPersonalHomePage</t>
+  </si>
+  <si>
+    <t>?lookerId=2&amp;user_id=30</t>
+  </si>
+  <si>
+    <t>{"appStatus":{"errorCode":0,"message":"操作成功"},"content":[{"business_name":"坤达点子","notice_img":"\/product\/20160718184134_321.jpg","user_type":1,"user_id":2,"goods":[{"good_price":45211.0,"good_id":12,"good_name":"艾欧","banner_picture1":"\/product\/20160719165135_8977.png"},{"good_price":199.0,"good_id":14,"good_name":"麒麟瓜1","banner_picture1":"\/product\/20160720102028_5352.jpg"},{"good_price":452.0,"good_id":6,"good_name":"实力产品","banner_picture1":"\/product\/20160718165448_2602.png"},{"good_price":99898.0,"good_id":11,"good_name":"越南芒果","banner_picture1":"\/product\/20160720100057_5877.jpg"}],"shop_img":"\/product\/20160718120144_3196.jpg","head_picture":"http:\/\/dgm.boweixin.com\/\/product\/20160718134528_4744.jpg","notice_id":1}]}</t>
+  </si>
+  <si>
+    <t>{'content': [], 'appStatus': {'message': 'Index: 0, Size: 0', 'errorCode': 1}, 'status_code': 200}</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -280,7 +304,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -681,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>16</v>
@@ -717,7 +741,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -831,7 +855,32 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1"/>
+    <row r="4" spans="1:8" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="5" spans="1:8" ht="30" customHeight="1"/>
     <row r="6" spans="1:8" ht="30" customHeight="1"/>
     <row r="7" spans="1:8" ht="30" customHeight="1"/>
